--- a/medicine/Psychotrope/Caffè_Florian/Caffè_Florian.xlsx
+++ b/medicine/Psychotrope/Caffè_Florian/Caffè_Florian.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Caff%C3%A8_Florian</t>
+          <t>Caffè_Florian</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 Le Caffè Florian est le deuxième plus ancien café existant du monde.(Après le Procope créé en 1686 à Paris, en France) Situé dans place Saint-Marc de Venise, en Italie, fondé en 1720 par Floriano Francesconi. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Caff%C3%A8_Florian</t>
+          <t>Caffè_Florian</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le 29 décembre 1720, Floriano Francesconi, ami de tous les notables de Venise, inaugure son célèbre café sous le nom de Venezia Trionfante (Venise Triomphante, en italien) sous les arcades des procuraties neuves de la place Saint-Marc, avec vue sur la basilique Saint-Marc et sur son campanile. Les clients le rebaptisent rapidement par le nom de son propriétaire : Caffè Florian.
 Aristocrates, ambassadeurs, riches marchands, artistes, hommes de lettres comme Goethe, Alfred de Musset, George Sand, Giuseppe Verdi, Lord Byron, Giacomo Casanova, etc., sont des habitués. De 1908 à 1911, il accueille le club des Longues moustaches.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Caff%C3%A8_Florian</t>
+          <t>Caffè_Florian</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Le café</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">À l'intérieur, le café au charme délicat de bonbonnière se divise en six salons :
 la Salle des Grands Hommes, qui tire son nom des nombreux portraits de célèbres Vénitiens peints par Giulio Carlini (Carlo Goldoni, Francesco Morosini, Titien, Marco Polo, Andrea Palladio, Enrico Dandolo…) ;
